--- a/biology/Biochimie/2C-P/2C-P.xlsx
+++ b/biology/Biochimie/2C-P/2C-P.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le 2C-P est une drogue psychédélique, découverte par Alexander Shulgin et décrite pour la première fois dans son livre PiHKAL[6].
+Le 2C-P est une drogue psychédélique, découverte par Alexander Shulgin et décrite pour la première fois dans son livre PiHKAL.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 2C-P fait partie de la famille de drogues 2C-x, des phényléthylamines hallucinogènes de synthèse découvertes par Alexander Shulgin. Il s'agit d'une phényléthylamine substituée, comprenant des groupes méthoxy (en) en position 2 et 5 (comme toutes les molécules de la famille des 2C-x), ainsi qu'un groupe propyle en position 4.
-En raison de sa substitution en position 4, il fait partie des drogues les plus puissantes de la famille des 2C-x[3].
+En raison de sa substitution en position 4, il fait partie des drogues les plus puissantes de la famille des 2C-x.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 2C-P est un agoniste des récepteurs sérotoninergiques 2A (en), 2B (en) et 2C (en), ainsi que des récepteurs α1, D1-3 et H1[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 2C-P est un agoniste des récepteurs sérotoninergiques 2A (en), 2B (en) et 2C (en), ainsi que des récepteurs α1, D1-3 et H1.
 </t>
         </is>
       </c>
@@ -575,12 +591,49 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Moins connu et étudié que d'autres composés de la famille des 2C-x, le 2C-P est peu documenté dans la littérature et on ne connaît pas précisément sa toxicité et sa pharmacologie. Sa courbe dose-réponse n'est pas linéaire, ce qui rend son dosage risqué : une augmentation (même minime) de la dose peut provoquer des effets bien plus intenses[5],[8].
-Comme tous les psychédéliques, il peut provoquer des bad trips. Compte tenu de la faible dose active du 2C-P, le surdosage est fréquent et potentiellement mortel[9]. De plus, sa demi-vie sensiblement plus longue que les autres drogues de la famille des 2C-x peut entraîner une persistance des effets pendant plusieurs jours[10].
-Effets recherchés
-hallucinations visuelles et auditives ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moins connu et étudié que d'autres composés de la famille des 2C-x, le 2C-P est peu documenté dans la littérature et on ne connaît pas précisément sa toxicité et sa pharmacologie. Sa courbe dose-réponse n'est pas linéaire, ce qui rend son dosage risqué : une augmentation (même minime) de la dose peut provoquer des effets bien plus intenses,.
+Comme tous les psychédéliques, il peut provoquer des bad trips. Compte tenu de la faible dose active du 2C-P, le surdosage est fréquent et potentiellement mortel. De plus, sa demi-vie sensiblement plus longue que les autres drogues de la famille des 2C-x peut entraîner une persistance des effets pendant plusieurs jours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2C-P</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2C-P</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Effets recherchés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>hallucinations visuelles et auditives ;
 état modifié de conscience ;
 modification de la perception des couleurs ;
 introspection, pensées philosophiques ;
@@ -590,9 +643,43 @@
 sentiment d'empathie ;
 augmentation de la sociabilité, désinhibition ;
 augmentation de la créativité.
-état contemplatif
-Effets indésirables
-vasoconstriction ;
+état contemplatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2C-P</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2C-P</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>vasoconstriction ;
 hypertension ;
 augmentation importante du rythme cardiaque ;
 dilatation des pupilles ;
